--- a/res/listasswadesh.xlsx
+++ b/res/listasswadesh.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1795">
   <si>
     <t xml:space="preserve">Paya</t>
   </si>
@@ -138,19 +138,19 @@
     <t xml:space="preserve">si~:ma~</t>
   </si>
   <si>
-    <t xml:space="preserve">ji</t>
+    <t xml:space="preserve">ii</t>
   </si>
   <si>
     <t xml:space="preserve">dita</t>
   </si>
   <si>
-    <t xml:space="preserve">Sim@</t>
+    <t xml:space="preserve">Sime</t>
   </si>
   <si>
     <t xml:space="preserve">amarillo</t>
   </si>
   <si>
-    <t xml:space="preserve">sewa</t>
+    <t xml:space="preserve">seua</t>
   </si>
   <si>
     <t xml:space="preserve">nuknukNa</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">kera_Hle</t>
   </si>
   <si>
-    <t xml:space="preserve">gol:ogwad</t>
+    <t xml:space="preserve">gol:oguad</t>
   </si>
   <si>
     <t xml:space="preserve">kaSikua_"ma</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">C7mi</t>
   </si>
   <si>
-    <t xml:space="preserve">taw~a_"ja</t>
+    <t xml:space="preserve">tau~a_"ia</t>
   </si>
   <si>
     <t xml:space="preserve">t1Bko</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">árbol</t>
   </si>
   <si>
-    <t xml:space="preserve">pa~j~h</t>
+    <t xml:space="preserve">pa~i~h</t>
   </si>
   <si>
     <t xml:space="preserve">ka:t</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">k7N</t>
   </si>
   <si>
-    <t xml:space="preserve">ka_"rukwa</t>
+    <t xml:space="preserve">ka_"rukua</t>
   </si>
   <si>
     <t xml:space="preserve">k1e</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">tok</t>
   </si>
   <si>
-    <t xml:space="preserve">Nwi</t>
+    <t xml:space="preserve">Nui</t>
   </si>
   <si>
     <t xml:space="preserve">Ca:</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">a?g</t>
   </si>
   <si>
-    <t xml:space="preserve">ja_"?an</t>
+    <t xml:space="preserve">ia_"?an</t>
   </si>
   <si>
     <t xml:space="preserve">iohot1</t>
@@ -339,7 +339,7 @@
     <t xml:space="preserve">sua_Ht</t>
   </si>
   <si>
-    <t xml:space="preserve">Nwe~</t>
+    <t xml:space="preserve">Nue~</t>
   </si>
   <si>
     <t xml:space="preserve">hutre_H</t>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">bunsi</t>
   </si>
   <si>
-    <t xml:space="preserve">kwasa_"j</t>
+    <t xml:space="preserve">kuasa_"i</t>
   </si>
   <si>
     <t xml:space="preserve">pk1h1sio</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">ug7la</t>
   </si>
   <si>
-    <t xml:space="preserve">ka:_Hkva</t>
+    <t xml:space="preserve">ka:_HkBa</t>
   </si>
   <si>
     <t xml:space="preserve">ka:su</t>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">kaga</t>
   </si>
   <si>
-    <t xml:space="preserve">köhka</t>
+    <t xml:space="preserve">kohka</t>
   </si>
   <si>
     <t xml:space="preserve">kaCu</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">more_HN</t>
   </si>
   <si>
-    <t xml:space="preserve">kwi~</t>
+    <t xml:space="preserve">kui~</t>
   </si>
   <si>
     <t xml:space="preserve">nu~_H</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">du</t>
   </si>
   <si>
-    <t xml:space="preserve">a_"j</t>
+    <t xml:space="preserve">a_"i</t>
   </si>
   <si>
     <t xml:space="preserve">So</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">sukankanau</t>
   </si>
   <si>
-    <t xml:space="preserve">baj</t>
+    <t xml:space="preserve">bai</t>
   </si>
   <si>
     <t xml:space="preserve">cabeza</t>
@@ -504,7 +504,7 @@
     <t xml:space="preserve">ki:N</t>
   </si>
   <si>
-    <t xml:space="preserve">wU_\ki_Ld</t>
+    <t xml:space="preserve">uU_\ki_Ld</t>
   </si>
   <si>
     <t xml:space="preserve">Ta~_Hku~_H</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">sagra_H</t>
   </si>
   <si>
-    <t xml:space="preserve">dOkwO</t>
+    <t xml:space="preserve">dOkuO</t>
   </si>
   <si>
     <t xml:space="preserve">Cuga_H</t>
@@ -531,7 +531,7 @@
     <t xml:space="preserve">sak7n</t>
   </si>
   <si>
-    <t xml:space="preserve">kwi_"Sa</t>
+    <t xml:space="preserve">kui_"Sa</t>
   </si>
   <si>
     <t xml:space="preserve">T1sk1</t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">caliente</t>
   </si>
   <si>
-    <t xml:space="preserve">patakwa</t>
+    <t xml:space="preserve">patakua</t>
   </si>
   <si>
     <t xml:space="preserve">tku:a</t>
@@ -588,7 +588,7 @@
     <t xml:space="preserve">ua_"nuakse</t>
   </si>
   <si>
-    <t xml:space="preserve">wiwi</t>
+    <t xml:space="preserve">uiui</t>
   </si>
   <si>
     <t xml:space="preserve">kihki_"t</t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">uinan</t>
   </si>
   <si>
-    <t xml:space="preserve">itakwa</t>
+    <t xml:space="preserve">itakua</t>
   </si>
   <si>
     <t xml:space="preserve">caminar</t>
@@ -651,7 +651,7 @@
     <t xml:space="preserve">ne_"i</t>
   </si>
   <si>
-    <t xml:space="preserve">naj</t>
+    <t xml:space="preserve">nai</t>
   </si>
   <si>
     <t xml:space="preserve">be_"n</t>
@@ -660,7 +660,7 @@
     <t xml:space="preserve">n1n</t>
   </si>
   <si>
-    <t xml:space="preserve">ju_H</t>
+    <t xml:space="preserve">iu_H</t>
   </si>
   <si>
     <t xml:space="preserve">camino</t>
@@ -720,7 +720,7 @@
     <t xml:space="preserve">Sasta_H</t>
   </si>
   <si>
-    <t xml:space="preserve">inguekoköna</t>
+    <t xml:space="preserve">inguekokona</t>
   </si>
   <si>
     <t xml:space="preserve">tika</t>
@@ -729,7 +729,7 @@
     <t xml:space="preserve">carne</t>
   </si>
   <si>
-    <t xml:space="preserve">juku?</t>
+    <t xml:space="preserve">iuku?</t>
   </si>
   <si>
     <t xml:space="preserve">aNki:N</t>
@@ -762,10 +762,10 @@
     <t xml:space="preserve">u_"a</t>
   </si>
   <si>
-    <t xml:space="preserve">wim7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru_"wa</t>
+    <t xml:space="preserve">uim7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_"ua</t>
   </si>
   <si>
     <t xml:space="preserve">Sihika</t>
@@ -825,7 +825,7 @@
     <t xml:space="preserve">sukta</t>
   </si>
   <si>
-    <t xml:space="preserve">wen</t>
+    <t xml:space="preserve">uen</t>
   </si>
   <si>
     <t xml:space="preserve">mu:_Hkna</t>
@@ -888,7 +888,7 @@
     <t xml:space="preserve">ga</t>
   </si>
   <si>
-    <t xml:space="preserve">nja_Hng</t>
+    <t xml:space="preserve">nia_Hng</t>
   </si>
   <si>
     <t xml:space="preserve">sana~mi~</t>
@@ -930,13 +930,13 @@
     <t xml:space="preserve">sama_HN</t>
   </si>
   <si>
-    <t xml:space="preserve">gwage</t>
+    <t xml:space="preserve">guage</t>
   </si>
   <si>
     <t xml:space="preserve">aha_"naluli</t>
   </si>
   <si>
-    <t xml:space="preserve">Jwawika</t>
+    <t xml:space="preserve">Juauika</t>
   </si>
   <si>
     <t xml:space="preserve">ura_"</t>
@@ -960,7 +960,7 @@
     <t xml:space="preserve">cuello</t>
   </si>
   <si>
-    <t xml:space="preserve">ta:wa:</t>
+    <t xml:space="preserve">ta:ua:</t>
   </si>
   <si>
     <t xml:space="preserve">ki:Nkat</t>
@@ -996,7 +996,7 @@
     <t xml:space="preserve">gan7ko?sa</t>
   </si>
   <si>
-    <t xml:space="preserve">ja_"?nkukara</t>
+    <t xml:space="preserve">ia_"?nkukara</t>
   </si>
   <si>
     <t xml:space="preserve">G1k1hiSa</t>
@@ -1005,7 +1005,7 @@
     <t xml:space="preserve">galmana</t>
   </si>
   <si>
-    <t xml:space="preserve">ho_Hnjokva</t>
+    <t xml:space="preserve">ho_HniokBa</t>
   </si>
   <si>
     <t xml:space="preserve">abbo</t>
@@ -1014,7 +1014,7 @@
     <t xml:space="preserve">pone_H</t>
   </si>
   <si>
-    <t xml:space="preserve">göla</t>
+    <t xml:space="preserve">gola</t>
   </si>
   <si>
     <t xml:space="preserve">cuerno</t>
@@ -1053,7 +1053,7 @@
     <t xml:space="preserve">kaC7</t>
   </si>
   <si>
-    <t xml:space="preserve">kwiskara_"</t>
+    <t xml:space="preserve">kuiskara_"</t>
   </si>
   <si>
     <t xml:space="preserve">k1h1e</t>
@@ -1065,7 +1065,7 @@
     <t xml:space="preserve">dar</t>
   </si>
   <si>
-    <t xml:space="preserve">wiS</t>
+    <t xml:space="preserve">uiS</t>
   </si>
   <si>
     <t xml:space="preserve">taN</t>
@@ -1098,10 +1098,10 @@
     <t xml:space="preserve">age_"</t>
   </si>
   <si>
-    <t xml:space="preserve">wes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wi_"k</t>
+    <t xml:space="preserve">ues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui_"k</t>
   </si>
   <si>
     <t xml:space="preserve">n1</t>
@@ -1116,7 +1116,7 @@
     <t xml:space="preserve">decir</t>
   </si>
   <si>
-    <t xml:space="preserve">ja~h</t>
+    <t xml:space="preserve">ia~h</t>
   </si>
   <si>
     <t xml:space="preserve">auN</t>
@@ -1146,16 +1146,16 @@
     <t xml:space="preserve">gua</t>
   </si>
   <si>
-    <t xml:space="preserve">asaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wa_"k</t>
+    <t xml:space="preserve">asai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_"k</t>
   </si>
   <si>
     <t xml:space="preserve">Gua</t>
   </si>
   <si>
-    <t xml:space="preserve">ja_Hng</t>
+    <t xml:space="preserve">ia_Hng</t>
   </si>
   <si>
     <t xml:space="preserve">diente</t>
@@ -1236,7 +1236,7 @@
     <t xml:space="preserve">kap</t>
   </si>
   <si>
-    <t xml:space="preserve">kubwe~</t>
+    <t xml:space="preserve">kubue~</t>
   </si>
   <si>
     <t xml:space="preserve">gebe_H</t>
@@ -1368,10 +1368,10 @@
     <t xml:space="preserve">ha_"le</t>
   </si>
   <si>
-    <t xml:space="preserve">jama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_"ja</t>
+    <t xml:space="preserve">iama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_"ia</t>
   </si>
   <si>
     <t xml:space="preserve">1s1</t>
@@ -1383,10 +1383,10 @@
     <t xml:space="preserve">na_Hina</t>
   </si>
   <si>
-    <t xml:space="preserve">fu_Ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ya</t>
+    <t xml:space="preserve">Fu_Ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a</t>
   </si>
   <si>
     <t xml:space="preserve">esto</t>
@@ -1443,7 +1443,7 @@
     <t xml:space="preserve">estrella</t>
   </si>
   <si>
-    <t xml:space="preserve">piriwa</t>
+    <t xml:space="preserve">piriua</t>
   </si>
   <si>
     <t xml:space="preserve">piup</t>
@@ -1476,7 +1476,7 @@
     <t xml:space="preserve">zume_"ia</t>
   </si>
   <si>
-    <t xml:space="preserve">wirakok7</t>
+    <t xml:space="preserve">uirakok7</t>
   </si>
   <si>
     <t xml:space="preserve">u_"ba</t>
@@ -1503,7 +1503,7 @@
     <t xml:space="preserve">frío</t>
   </si>
   <si>
-    <t xml:space="preserve">se~j~w~a~</t>
+    <t xml:space="preserve">se~i~u~a~</t>
   </si>
   <si>
     <t xml:space="preserve">saima</t>
@@ -1557,16 +1557,16 @@
     <t xml:space="preserve">sa_Hriga</t>
   </si>
   <si>
-    <t xml:space="preserve">fu_Hre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terokwa</t>
+    <t xml:space="preserve">Fu_Hre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terokua</t>
   </si>
   <si>
     <t xml:space="preserve">fuego</t>
   </si>
   <si>
-    <t xml:space="preserve">taiNwa</t>
+    <t xml:space="preserve">taiNua</t>
   </si>
   <si>
     <t xml:space="preserve">Narkalima</t>
@@ -1587,7 +1587,7 @@
     <t xml:space="preserve">Jikra_H</t>
   </si>
   <si>
-    <t xml:space="preserve">ñukwO</t>
+    <t xml:space="preserve">ñukuO</t>
   </si>
   <si>
     <t xml:space="preserve">hi_Hbata</t>
@@ -1641,7 +1641,7 @@
     <t xml:space="preserve">kri_H?ex</t>
   </si>
   <si>
-    <t xml:space="preserve">kw_Heri</t>
+    <t xml:space="preserve">ku_Heri</t>
   </si>
   <si>
     <t xml:space="preserve">dum:ad</t>
@@ -1650,7 +1650,7 @@
     <t xml:space="preserve">ate_"ma</t>
   </si>
   <si>
-    <t xml:space="preserve">aw7?n</t>
+    <t xml:space="preserve">au7?n</t>
   </si>
   <si>
     <t xml:space="preserve">ku_"mak</t>
@@ -1704,7 +1704,7 @@
     <t xml:space="preserve">moto</t>
   </si>
   <si>
-    <t xml:space="preserve">ta_Hgwa</t>
+    <t xml:space="preserve">ta_Hgua</t>
   </si>
   <si>
     <t xml:space="preserve">bina</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">azaC7</t>
   </si>
   <si>
-    <t xml:space="preserve">ka_"ja</t>
+    <t xml:space="preserve">ka_"ia</t>
   </si>
   <si>
     <t xml:space="preserve">rata</t>
@@ -1782,7 +1782,7 @@
     <t xml:space="preserve">hombre</t>
   </si>
   <si>
-    <t xml:space="preserve">arwa~</t>
+    <t xml:space="preserve">arua~</t>
   </si>
   <si>
     <t xml:space="preserve">niki:kna</t>
@@ -1815,7 +1815,7 @@
     <t xml:space="preserve">sigi_"</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceirwa</t>
+    <t xml:space="preserve">Ceirua</t>
   </si>
   <si>
     <t xml:space="preserve">se_"ra</t>
@@ -1827,7 +1827,7 @@
     <t xml:space="preserve">terrua</t>
   </si>
   <si>
-    <t xml:space="preserve">tsa:_H kve</t>
+    <t xml:space="preserve">tsa:_H kBe</t>
   </si>
   <si>
     <t xml:space="preserve">na</t>
@@ -1836,7 +1836,7 @@
     <t xml:space="preserve">tara_H</t>
   </si>
   <si>
-    <t xml:space="preserve">fe_Hrua</t>
+    <t xml:space="preserve">Fe_Hrua</t>
   </si>
   <si>
     <t xml:space="preserve">ateki_H</t>
@@ -1845,7 +1845,7 @@
     <t xml:space="preserve">hueso</t>
   </si>
   <si>
-    <t xml:space="preserve">pa~ja~</t>
+    <t xml:space="preserve">pa~ia~</t>
   </si>
   <si>
     <t xml:space="preserve">a:luk</t>
@@ -1875,7 +1875,7 @@
     <t xml:space="preserve">sla_"kala</t>
   </si>
   <si>
-    <t xml:space="preserve">wes7</t>
+    <t xml:space="preserve">ues7</t>
   </si>
   <si>
     <t xml:space="preserve">ka_"rara</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">lengua</t>
   </si>
   <si>
-    <t xml:space="preserve">uwa</t>
+    <t xml:space="preserve">uua</t>
   </si>
   <si>
     <t xml:space="preserve">ku:p</t>
@@ -1980,10 +1980,10 @@
     <t xml:space="preserve">tidOrO</t>
   </si>
   <si>
-    <t xml:space="preserve">kibi_Hgwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gwabin</t>
+    <t xml:space="preserve">kibi_Hgua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guabin</t>
   </si>
   <si>
     <t xml:space="preserve">hua_"ngala</t>
@@ -1992,7 +1992,7 @@
     <t xml:space="preserve">kori?g7n7</t>
   </si>
   <si>
-    <t xml:space="preserve">ku_"wa</t>
+    <t xml:space="preserve">ku_"ua</t>
   </si>
   <si>
     <t xml:space="preserve">pkua</t>
@@ -2001,7 +2001,7 @@
     <t xml:space="preserve">kongil7</t>
   </si>
   <si>
-    <t xml:space="preserve">kva:_H</t>
+    <t xml:space="preserve">kBa:_H</t>
   </si>
   <si>
     <t xml:space="preserve">kobe~:</t>
@@ -2010,7 +2010,7 @@
     <t xml:space="preserve">ku_Hba</t>
   </si>
   <si>
-    <t xml:space="preserve">kurihgöna</t>
+    <t xml:space="preserve">kurihgona</t>
   </si>
   <si>
     <t xml:space="preserve">kob1</t>
@@ -2064,7 +2064,7 @@
     <t xml:space="preserve">luna</t>
   </si>
   <si>
-    <t xml:space="preserve">jauwi</t>
+    <t xml:space="preserve">iauui</t>
   </si>
   <si>
     <t xml:space="preserve">tukan</t>
@@ -2097,7 +2097,7 @@
     <t xml:space="preserve">ti?ma</t>
   </si>
   <si>
-    <t xml:space="preserve">si?jo_"ra</t>
+    <t xml:space="preserve">si?io_"ra</t>
   </si>
   <si>
     <t xml:space="preserve">Sie</t>
@@ -2121,10 +2121,10 @@
     <t xml:space="preserve">mano</t>
   </si>
   <si>
-    <t xml:space="preserve">sawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwi:k</t>
+    <t xml:space="preserve">saua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kui:k</t>
   </si>
   <si>
     <t xml:space="preserve">kuki:</t>
@@ -2211,16 +2211,16 @@
     <t xml:space="preserve">Nambe_Hge</t>
   </si>
   <si>
-    <t xml:space="preserve">oburgwe</t>
+    <t xml:space="preserve">oburgue</t>
   </si>
   <si>
     <t xml:space="preserve">gua_"</t>
   </si>
   <si>
-    <t xml:space="preserve">gwak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jau_"w</t>
+    <t xml:space="preserve">guak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iau_"u</t>
   </si>
   <si>
     <t xml:space="preserve">guag</t>
@@ -2235,7 +2235,7 @@
     <t xml:space="preserve">montaña</t>
   </si>
   <si>
-    <t xml:space="preserve">wahaña</t>
+    <t xml:space="preserve">uahaña</t>
   </si>
   <si>
     <t xml:space="preserve">ta:sup</t>
@@ -2256,13 +2256,13 @@
     <t xml:space="preserve">kra_Hnsu_Hh</t>
   </si>
   <si>
-    <t xml:space="preserve">kOtokwO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hujuga_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jala</t>
+    <t xml:space="preserve">kOtokuO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huiuga_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iala</t>
   </si>
   <si>
     <t xml:space="preserve">geka_"</t>
@@ -2295,10 +2295,10 @@
     <t xml:space="preserve">tata:</t>
   </si>
   <si>
-    <t xml:space="preserve">du_\wa~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du_Hwa~</t>
+    <t xml:space="preserve">du_\ua~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du_Hua~</t>
   </si>
   <si>
     <t xml:space="preserve">kra_Hn</t>
@@ -2307,34 +2307,34 @@
     <t xml:space="preserve">koht</t>
   </si>
   <si>
-    <t xml:space="preserve">kwai~</t>
+    <t xml:space="preserve">kuai~</t>
   </si>
   <si>
     <t xml:space="preserve">uNho_Hge</t>
   </si>
   <si>
-    <t xml:space="preserve">burgwe</t>
+    <t xml:space="preserve">burgue</t>
   </si>
   <si>
     <t xml:space="preserve">Su_"</t>
   </si>
   <si>
-    <t xml:space="preserve">wiC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja_"r</t>
+    <t xml:space="preserve">uiC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia_"r</t>
   </si>
   <si>
     <t xml:space="preserve">BG1skua</t>
   </si>
   <si>
-    <t xml:space="preserve">ju_Htka</t>
+    <t xml:space="preserve">iu_Htka</t>
   </si>
   <si>
     <t xml:space="preserve">muchos</t>
   </si>
   <si>
-    <t xml:space="preserve">we?</t>
+    <t xml:space="preserve">ue?</t>
   </si>
   <si>
     <t xml:space="preserve">Narak</t>
@@ -2364,10 +2364,10 @@
     <t xml:space="preserve">maCui_"</t>
   </si>
   <si>
-    <t xml:space="preserve">aw7tari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja_"rhi</t>
+    <t xml:space="preserve">au7tari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia_"rhi</t>
   </si>
   <si>
     <t xml:space="preserve">Bie</t>
@@ -2427,7 +2427,7 @@
     <t xml:space="preserve">a?mia</t>
   </si>
   <si>
-    <t xml:space="preserve">wiw~a_"</t>
+    <t xml:space="preserve">uiu~a_"</t>
   </si>
   <si>
     <t xml:space="preserve">Gui</t>
@@ -2436,7 +2436,7 @@
     <t xml:space="preserve">mena</t>
   </si>
   <si>
-    <t xml:space="preserve">junkve</t>
+    <t xml:space="preserve">iunkBe</t>
   </si>
   <si>
     <t xml:space="preserve">bio</t>
@@ -2559,7 +2559,7 @@
     <t xml:space="preserve">negro</t>
   </si>
   <si>
-    <t xml:space="preserve">sounkwa</t>
+    <t xml:space="preserve">sounkua</t>
   </si>
   <si>
     <t xml:space="preserve">parNa</t>
@@ -2592,10 +2592,10 @@
     <t xml:space="preserve">aba_"ks1</t>
   </si>
   <si>
-    <t xml:space="preserve">twi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bakso_"j</t>
+    <t xml:space="preserve">tui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bakso_"i</t>
   </si>
   <si>
     <t xml:space="preserve">m1h1sio</t>
@@ -2613,7 +2613,7 @@
     <t xml:space="preserve">sana_H</t>
   </si>
   <si>
-    <t xml:space="preserve">niakönke</t>
+    <t xml:space="preserve">niakonke</t>
   </si>
   <si>
     <t xml:space="preserve">baa</t>
@@ -2712,7 +2712,7 @@
     <t xml:space="preserve">sei</t>
   </si>
   <si>
-    <t xml:space="preserve">Se_"jkara</t>
+    <t xml:space="preserve">Se_"ikara</t>
   </si>
   <si>
     <t xml:space="preserve">Ta</t>
@@ -2808,7 +2808,7 @@
     <t xml:space="preserve">na_"s1n</t>
   </si>
   <si>
-    <t xml:space="preserve">miwi</t>
+    <t xml:space="preserve">miui</t>
   </si>
   <si>
     <t xml:space="preserve">i_"sa</t>
@@ -2829,7 +2829,7 @@
     <t xml:space="preserve">nube</t>
   </si>
   <si>
-    <t xml:space="preserve">wanak</t>
+    <t xml:space="preserve">uanak</t>
   </si>
   <si>
     <t xml:space="preserve">nu:nikka:s</t>
@@ -2859,10 +2859,10 @@
     <t xml:space="preserve">moui</t>
   </si>
   <si>
-    <t xml:space="preserve">m7nj7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bowara_"</t>
+    <t xml:space="preserve">m7ni7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouara_"</t>
   </si>
   <si>
     <t xml:space="preserve">moña</t>
@@ -2922,7 +2922,7 @@
     <t xml:space="preserve">abitti</t>
   </si>
   <si>
-    <t xml:space="preserve">i_"bsoja</t>
+    <t xml:space="preserve">i_"bsoia</t>
   </si>
   <si>
     <t xml:space="preserve">BihiTa</t>
@@ -2937,7 +2937,7 @@
     <t xml:space="preserve">oír</t>
   </si>
   <si>
-    <t xml:space="preserve">weS</t>
+    <t xml:space="preserve">ueS</t>
   </si>
   <si>
     <t xml:space="preserve">alkuk</t>
@@ -2955,7 +2955,7 @@
     <t xml:space="preserve">do_Hxk</t>
   </si>
   <si>
-    <t xml:space="preserve">kukwenui~</t>
+    <t xml:space="preserve">kukuenui~</t>
   </si>
   <si>
     <t xml:space="preserve">Cu_Hge</t>
@@ -2967,10 +2967,10 @@
     <t xml:space="preserve">zu_"k</t>
   </si>
   <si>
-    <t xml:space="preserve">no?kw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ra_"?kwi</t>
+    <t xml:space="preserve">no?ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra_"?kui</t>
   </si>
   <si>
     <t xml:space="preserve">n1pkua</t>
@@ -2988,7 +2988,7 @@
     <t xml:space="preserve">ojo</t>
   </si>
   <si>
-    <t xml:space="preserve">wa</t>
+    <t xml:space="preserve">ua</t>
   </si>
   <si>
     <t xml:space="preserve">up</t>
@@ -3009,10 +3009,10 @@
     <t xml:space="preserve">ka?i_HS ku_Hp</t>
   </si>
   <si>
-    <t xml:space="preserve">OkwO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gwa_Hgaba</t>
+    <t xml:space="preserve">OkuO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gua_Hgaba</t>
   </si>
   <si>
     <t xml:space="preserve">imia</t>
@@ -3027,7 +3027,7 @@
     <t xml:space="preserve">uma</t>
   </si>
   <si>
-    <t xml:space="preserve">ua:_Hkva</t>
+    <t xml:space="preserve">ua:_HkBa</t>
   </si>
   <si>
     <t xml:space="preserve">o:</t>
@@ -3078,7 +3078,7 @@
     <t xml:space="preserve">ku_"ka</t>
   </si>
   <si>
-    <t xml:space="preserve">kukw7</t>
+    <t xml:space="preserve">kuku7</t>
   </si>
   <si>
     <t xml:space="preserve">kukaha_"</t>
@@ -3108,7 +3108,7 @@
     <t xml:space="preserve">pájaro</t>
   </si>
   <si>
-    <t xml:space="preserve">kwas</t>
+    <t xml:space="preserve">kuas</t>
   </si>
   <si>
     <t xml:space="preserve">sinsak</t>
@@ -3129,13 +3129,13 @@
     <t xml:space="preserve">dut</t>
   </si>
   <si>
-    <t xml:space="preserve">nukwO</t>
+    <t xml:space="preserve">nukuO</t>
   </si>
   <si>
     <t xml:space="preserve">bada_Hda</t>
   </si>
   <si>
-    <t xml:space="preserve">Cig:wi</t>
+    <t xml:space="preserve">Cig:ui</t>
   </si>
   <si>
     <t xml:space="preserve">nuba_"</t>
@@ -3144,7 +3144,7 @@
     <t xml:space="preserve">si?sio</t>
   </si>
   <si>
-    <t xml:space="preserve">ruwa_"sira</t>
+    <t xml:space="preserve">ruua_"sira</t>
   </si>
   <si>
     <t xml:space="preserve">sue</t>
@@ -3204,7 +3204,7 @@
     <t xml:space="preserve">zun</t>
   </si>
   <si>
-    <t xml:space="preserve">o?kwa_"</t>
+    <t xml:space="preserve">o?kua_"</t>
   </si>
   <si>
     <t xml:space="preserve">tamakana</t>
@@ -3219,7 +3219,7 @@
     <t xml:space="preserve">ko_Hrgal</t>
   </si>
   <si>
-    <t xml:space="preserve">kümöna</t>
+    <t xml:space="preserve">kumona</t>
   </si>
   <si>
     <t xml:space="preserve">eCi</t>
@@ -3267,7 +3267,7 @@
     <t xml:space="preserve">anara_"</t>
   </si>
   <si>
-    <t xml:space="preserve">Tye</t>
+    <t xml:space="preserve">T1e</t>
   </si>
   <si>
     <t xml:space="preserve">a:_H</t>
@@ -3279,7 +3279,7 @@
     <t xml:space="preserve">pequeño</t>
   </si>
   <si>
-    <t xml:space="preserve">aje</t>
+    <t xml:space="preserve">aie</t>
   </si>
   <si>
     <t xml:space="preserve">suksuk</t>
@@ -3366,7 +3366,7 @@
     <t xml:space="preserve">ik7</t>
   </si>
   <si>
-    <t xml:space="preserve">u_"wa</t>
+    <t xml:space="preserve">u_"ua</t>
   </si>
   <si>
     <t xml:space="preserve">mu1ska</t>
@@ -3378,7 +3378,7 @@
     <t xml:space="preserve">pez</t>
   </si>
   <si>
-    <t xml:space="preserve">wiSa</t>
+    <t xml:space="preserve">uiSa</t>
   </si>
   <si>
     <t xml:space="preserve">salpka</t>
@@ -3399,28 +3399,22 @@
     <t xml:space="preserve">uN</t>
   </si>
   <si>
-    <t xml:space="preserve">gwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gwe_HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
+    <t xml:space="preserve">gue_HN</t>
   </si>
   <si>
     <t xml:space="preserve">u_"aka</t>
   </si>
   <si>
-    <t xml:space="preserve">wak7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ri_"? ru_"wa</t>
+    <t xml:space="preserve">uak7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ri_"? ru_"ua</t>
   </si>
   <si>
     <t xml:space="preserve">uaka</t>
   </si>
   <si>
-    <t xml:space="preserve">mi_Hnkrava</t>
+    <t xml:space="preserve">mi_HnkraBa</t>
   </si>
   <si>
     <t xml:space="preserve">tai</t>
@@ -3486,7 +3480,7 @@
     <t xml:space="preserve">se_Hro</t>
   </si>
   <si>
-    <t xml:space="preserve">kösa_H</t>
+    <t xml:space="preserve">kosa_H</t>
   </si>
   <si>
     <t xml:space="preserve">kixtu</t>
@@ -3522,7 +3516,7 @@
     <t xml:space="preserve">kI_H</t>
   </si>
   <si>
-    <t xml:space="preserve">ag:wa</t>
+    <t xml:space="preserve">ag:ua</t>
   </si>
   <si>
     <t xml:space="preserve">ha_"gi</t>
@@ -3549,13 +3543,13 @@
     <t xml:space="preserve">agi_Hna</t>
   </si>
   <si>
-    <t xml:space="preserve">aj</t>
+    <t xml:space="preserve">ai</t>
   </si>
   <si>
     <t xml:space="preserve">piel</t>
   </si>
   <si>
-    <t xml:space="preserve">kawa~</t>
+    <t xml:space="preserve">kaua~</t>
   </si>
   <si>
     <t xml:space="preserve">u:k</t>
@@ -3576,7 +3570,7 @@
     <t xml:space="preserve">kua_H?skua</t>
   </si>
   <si>
-    <t xml:space="preserve">kwata</t>
+    <t xml:space="preserve">kuata</t>
   </si>
   <si>
     <t xml:space="preserve">kua_Hra</t>
@@ -3660,10 +3654,10 @@
     <t xml:space="preserve">pluma</t>
   </si>
   <si>
-    <t xml:space="preserve">kawawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja:bak</t>
+    <t xml:space="preserve">kauaua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia:bak</t>
   </si>
   <si>
     <t xml:space="preserve">zo_Hk</t>
@@ -3675,7 +3669,7 @@
     <t xml:space="preserve">kala</t>
   </si>
   <si>
-    <t xml:space="preserve">kwi?</t>
+    <t xml:space="preserve">kui?</t>
   </si>
   <si>
     <t xml:space="preserve">Gaka</t>
@@ -3699,7 +3693,7 @@
     <t xml:space="preserve">ira</t>
   </si>
   <si>
-    <t xml:space="preserve">jakala</t>
+    <t xml:space="preserve">iakala</t>
   </si>
   <si>
     <t xml:space="preserve">oRo:ki</t>
@@ -3762,7 +3756,7 @@
     <t xml:space="preserve">ru_Ht</t>
   </si>
   <si>
-    <t xml:space="preserve">kukwe</t>
+    <t xml:space="preserve">kukue</t>
   </si>
   <si>
     <t xml:space="preserve">gu_Hge</t>
@@ -3771,13 +3765,10 @@
     <t xml:space="preserve">og:um:ag:e</t>
   </si>
   <si>
-    <t xml:space="preserve">jo_"u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wa_"?n</t>
+    <t xml:space="preserve">io_"u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_"?n</t>
   </si>
   <si>
     <t xml:space="preserve">pk1sta</t>
@@ -3912,7 +3903,7 @@
     <t xml:space="preserve">Sa_H?s</t>
   </si>
   <si>
-    <t xml:space="preserve">NwOtri</t>
+    <t xml:space="preserve">NuOtri</t>
   </si>
   <si>
     <t xml:space="preserve">saga_H</t>
@@ -3921,10 +3912,10 @@
     <t xml:space="preserve">mali</t>
   </si>
   <si>
-    <t xml:space="preserve">awala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si?ja_"</t>
+    <t xml:space="preserve">auala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si?ia_"</t>
   </si>
   <si>
     <t xml:space="preserve">SihiTa</t>
@@ -3945,13 +3936,13 @@
     <t xml:space="preserve">anCuku_HCa</t>
   </si>
   <si>
-    <t xml:space="preserve">ajSi</t>
+    <t xml:space="preserve">aiSi</t>
   </si>
   <si>
     <t xml:space="preserve">redondo</t>
   </si>
   <si>
-    <t xml:space="preserve">wiSihi</t>
+    <t xml:space="preserve">uiSihi</t>
   </si>
   <si>
     <t xml:space="preserve">kutkubis</t>
@@ -3978,7 +3969,7 @@
     <t xml:space="preserve">bolo_Hle</t>
   </si>
   <si>
-    <t xml:space="preserve">orog:wagwa</t>
+    <t xml:space="preserve">orog:uagua</t>
   </si>
   <si>
     <t xml:space="preserve">ahuini</t>
@@ -4002,7 +3993,7 @@
     <t xml:space="preserve">bidi</t>
   </si>
   <si>
-    <t xml:space="preserve">dörönönke</t>
+    <t xml:space="preserve">dorononke</t>
   </si>
   <si>
     <t xml:space="preserve">rodilla</t>
@@ -4035,13 +4026,13 @@
     <t xml:space="preserve">hona_HNgaba</t>
   </si>
   <si>
-    <t xml:space="preserve">jog:or</t>
+    <t xml:space="preserve">iog:or</t>
   </si>
   <si>
     <t xml:space="preserve">"nulua</t>
   </si>
   <si>
-    <t xml:space="preserve">bjuk7n7</t>
+    <t xml:space="preserve">biuk7n7</t>
   </si>
   <si>
     <t xml:space="preserve">kuska_"ra</t>
@@ -4059,16 +4050,16 @@
     <t xml:space="preserve">o_Hblugu</t>
   </si>
   <si>
-    <t xml:space="preserve">bukühköna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oCokwa</t>
+    <t xml:space="preserve">bukuhkona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oCokua</t>
   </si>
   <si>
     <t xml:space="preserve">rojo</t>
   </si>
   <si>
-    <t xml:space="preserve">pawa~</t>
+    <t xml:space="preserve">paua~</t>
   </si>
   <si>
     <t xml:space="preserve">sa:la</t>
@@ -4104,7 +4095,7 @@
     <t xml:space="preserve">zi?</t>
   </si>
   <si>
-    <t xml:space="preserve">buwa_"j</t>
+    <t xml:space="preserve">buua_"i</t>
   </si>
   <si>
     <t xml:space="preserve">hiiso</t>
@@ -4122,7 +4113,7 @@
     <t xml:space="preserve">kol</t>
   </si>
   <si>
-    <t xml:space="preserve">jika_Hnka</t>
+    <t xml:space="preserve">iika_Hnka</t>
   </si>
   <si>
     <t xml:space="preserve">tianSobe</t>
@@ -4134,7 +4125,7 @@
     <t xml:space="preserve">arir</t>
   </si>
   <si>
-    <t xml:space="preserve">Nwa</t>
+    <t xml:space="preserve">Nua</t>
   </si>
   <si>
     <t xml:space="preserve">ura:xe</t>
@@ -4155,16 +4146,16 @@
     <t xml:space="preserve">gare</t>
   </si>
   <si>
-    <t xml:space="preserve">gwia_HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wihi</t>
+    <t xml:space="preserve">guia_HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uihi</t>
   </si>
   <si>
     <t xml:space="preserve">akSa_"nga</t>
   </si>
   <si>
-    <t xml:space="preserve">g7nkw</t>
+    <t xml:space="preserve">g7nku</t>
   </si>
   <si>
     <t xml:space="preserve">i_"st</t>
@@ -4215,7 +4206,7 @@
     <t xml:space="preserve">a_"bi</t>
   </si>
   <si>
-    <t xml:space="preserve">Jwa</t>
+    <t xml:space="preserve">Jua</t>
   </si>
   <si>
     <t xml:space="preserve">a_"ba</t>
@@ -4281,7 +4272,7 @@
     <t xml:space="preserve">Jom7</t>
   </si>
   <si>
-    <t xml:space="preserve">inkwa_"t</t>
+    <t xml:space="preserve">inkua_"t</t>
   </si>
   <si>
     <t xml:space="preserve">BuSua</t>
@@ -4317,13 +4308,13 @@
     <t xml:space="preserve">Cude_H</t>
   </si>
   <si>
-    <t xml:space="preserve">gwagwa</t>
+    <t xml:space="preserve">guagua</t>
   </si>
   <si>
     <t xml:space="preserve">zula</t>
   </si>
   <si>
-    <t xml:space="preserve">7wa</t>
+    <t xml:space="preserve">7ua</t>
   </si>
   <si>
     <t xml:space="preserve">ru_"ra</t>
@@ -4410,7 +4401,7 @@
     <t xml:space="preserve">ka_Hk</t>
   </si>
   <si>
-    <t xml:space="preserve">Nwiana</t>
+    <t xml:space="preserve">Nuiana</t>
   </si>
   <si>
     <t xml:space="preserve">Cui_H</t>
@@ -4422,7 +4413,7 @@
     <t xml:space="preserve">ni_"ui</t>
   </si>
   <si>
-    <t xml:space="preserve">Jwi</t>
+    <t xml:space="preserve">Jui</t>
   </si>
   <si>
     <t xml:space="preserve">ra_"?sa</t>
@@ -4440,7 +4431,7 @@
     <t xml:space="preserve">kere_Hl</t>
   </si>
   <si>
-    <t xml:space="preserve">koköbunjo</t>
+    <t xml:space="preserve">kokobunio</t>
   </si>
   <si>
     <t xml:space="preserve">di_Ha</t>
@@ -4488,7 +4479,7 @@
     <t xml:space="preserve">hisSa</t>
   </si>
   <si>
-    <t xml:space="preserve">Cwi</t>
+    <t xml:space="preserve">Cui</t>
   </si>
   <si>
     <t xml:space="preserve">i_Hti</t>
@@ -4500,7 +4491,7 @@
     <t xml:space="preserve">iri</t>
   </si>
   <si>
-    <t xml:space="preserve">nebinjaku</t>
+    <t xml:space="preserve">nebiniaku</t>
   </si>
   <si>
     <t xml:space="preserve">ita</t>
@@ -4542,7 +4533,7 @@
     <t xml:space="preserve">sali_"nga</t>
   </si>
   <si>
-    <t xml:space="preserve">jow</t>
+    <t xml:space="preserve">iou</t>
   </si>
   <si>
     <t xml:space="preserve">ba?na_"ka</t>
@@ -4593,9 +4584,6 @@
     <t xml:space="preserve">a_Hma</t>
   </si>
   <si>
-    <t xml:space="preserve">bai</t>
-  </si>
-  <si>
     <t xml:space="preserve">ba</t>
   </si>
   <si>
@@ -4674,13 +4662,13 @@
     <t xml:space="preserve">e_Hte</t>
   </si>
   <si>
-    <t xml:space="preserve">gwen:a</t>
+    <t xml:space="preserve">guen:a</t>
   </si>
   <si>
     <t xml:space="preserve">aiz</t>
   </si>
   <si>
-    <t xml:space="preserve">i?Ngwi</t>
+    <t xml:space="preserve">i?Ngui</t>
   </si>
   <si>
     <t xml:space="preserve">isti_"</t>
@@ -4794,7 +4782,7 @@
     <t xml:space="preserve">tu~</t>
   </si>
   <si>
-    <t xml:space="preserve">Cw</t>
+    <t xml:space="preserve">Cu</t>
   </si>
   <si>
     <t xml:space="preserve">ihist1</t>
@@ -4836,7 +4824,7 @@
     <t xml:space="preserve">hle_Hre</t>
   </si>
   <si>
-    <t xml:space="preserve">gwili apbalgid</t>
+    <t xml:space="preserve">guili apbalgid</t>
   </si>
   <si>
     <t xml:space="preserve">ata_"Si</t>
@@ -4860,13 +4848,13 @@
     <t xml:space="preserve">minaika</t>
   </si>
   <si>
-    <t xml:space="preserve">jisa_Hma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atahka_Hje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitrunkwa</t>
+    <t xml:space="preserve">iisa_Hma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atahka_Hie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitrunkua</t>
   </si>
   <si>
     <t xml:space="preserve">yo</t>
@@ -4968,7 +4956,7 @@
     <t xml:space="preserve">corteza</t>
   </si>
   <si>
-    <t xml:space="preserve">ka~wa~</t>
+    <t xml:space="preserve">ka~ua~</t>
   </si>
   <si>
     <t xml:space="preserve">katu:k</t>
@@ -4983,9 +4971,6 @@
     <t xml:space="preserve">kua_H?s</t>
   </si>
   <si>
-    <t xml:space="preserve">kwa_Hra</t>
-  </si>
-  <si>
     <t xml:space="preserve">ahuba</t>
   </si>
   <si>
@@ -5034,7 +5019,7 @@
     <t xml:space="preserve">Taskua</t>
   </si>
   <si>
-    <t xml:space="preserve">ja_Hbera</t>
+    <t xml:space="preserve">ia_Hbera</t>
   </si>
   <si>
     <t xml:space="preserve">estar de pie</t>
@@ -5064,13 +5049,13 @@
     <t xml:space="preserve">kle_Hgada</t>
   </si>
   <si>
-    <t xml:space="preserve">gwiCi</t>
+    <t xml:space="preserve">guiCi</t>
   </si>
   <si>
     <t xml:space="preserve">iZgala_"</t>
   </si>
   <si>
-    <t xml:space="preserve">je_"?n</t>
+    <t xml:space="preserve">ie_"?n</t>
   </si>
   <si>
     <t xml:space="preserve">k1s1nsuka</t>
@@ -5085,7 +5070,7 @@
     <t xml:space="preserve">aSah</t>
   </si>
   <si>
-    <t xml:space="preserve">juktuN</t>
+    <t xml:space="preserve">iuktuN</t>
   </si>
   <si>
     <t xml:space="preserve">la</t>
@@ -5106,7 +5091,7 @@
     <t xml:space="preserve">tui_H</t>
   </si>
   <si>
-    <t xml:space="preserve">Cigwe</t>
+    <t xml:space="preserve">Cigue</t>
   </si>
   <si>
     <t xml:space="preserve">ia_"te</t>
@@ -5124,7 +5109,7 @@
     <t xml:space="preserve">akka~a:kka~i~</t>
   </si>
   <si>
-    <t xml:space="preserve">baXiktak</t>
+    <t xml:space="preserve">baxiktak</t>
   </si>
   <si>
     <t xml:space="preserve">grasa</t>
@@ -5145,13 +5130,13 @@
     <t xml:space="preserve">bu_H?</t>
   </si>
   <si>
-    <t xml:space="preserve">NwOri</t>
+    <t xml:space="preserve">NuOri</t>
   </si>
   <si>
     <t xml:space="preserve">ki_H</t>
   </si>
   <si>
-    <t xml:space="preserve">ibmargwal:u</t>
+    <t xml:space="preserve">ibmargual:u</t>
   </si>
   <si>
     <t xml:space="preserve">manti_"ka</t>
@@ -5196,7 +5181,7 @@
     <t xml:space="preserve">gui_"bu</t>
   </si>
   <si>
-    <t xml:space="preserve">web7</t>
+    <t xml:space="preserve">ueb7</t>
   </si>
   <si>
     <t xml:space="preserve">a?na_"</t>
@@ -5211,7 +5196,7 @@
     <t xml:space="preserve">humo</t>
   </si>
   <si>
-    <t xml:space="preserve">awa~s</t>
+    <t xml:space="preserve">aua~s</t>
   </si>
   <si>
     <t xml:space="preserve">uxu:ma</t>
@@ -5226,7 +5211,7 @@
     <t xml:space="preserve">ño_H</t>
   </si>
   <si>
-    <t xml:space="preserve">Ji_Hja</t>
+    <t xml:space="preserve">Ji_Hia</t>
   </si>
   <si>
     <t xml:space="preserve">Nubu</t>
@@ -5238,7 +5223,7 @@
     <t xml:space="preserve">zaCa</t>
   </si>
   <si>
-    <t xml:space="preserve">i_"jara</t>
+    <t xml:space="preserve">i_"iara</t>
   </si>
   <si>
     <t xml:space="preserve">i:_Hna</t>
@@ -5247,7 +5232,7 @@
     <t xml:space="preserve">inakba</t>
   </si>
   <si>
-    <t xml:space="preserve">ke_Hvsa</t>
+    <t xml:space="preserve">ke_HBsa</t>
   </si>
   <si>
     <t xml:space="preserve">lluvia</t>
@@ -5277,16 +5262,16 @@
     <t xml:space="preserve">ni_"kala</t>
   </si>
   <si>
-    <t xml:space="preserve">Jewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ri_"wa</t>
+    <t xml:space="preserve">Jeue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ri_"ua</t>
   </si>
   <si>
     <t xml:space="preserve">siua</t>
   </si>
   <si>
-    <t xml:space="preserve">di:_Hjo</t>
+    <t xml:space="preserve">di:_Hio</t>
   </si>
   <si>
     <t xml:space="preserve">nikkai</t>
@@ -5319,7 +5304,7 @@
     <t xml:space="preserve">tu_H?</t>
   </si>
   <si>
-    <t xml:space="preserve">kwete</t>
+    <t xml:space="preserve">kuete</t>
   </si>
   <si>
     <t xml:space="preserve">gu_Hde</t>
@@ -5370,7 +5355,7 @@
     <t xml:space="preserve">per7</t>
   </si>
   <si>
-    <t xml:space="preserve">ba_"jara</t>
+    <t xml:space="preserve">ba_"iara</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
@@ -5379,13 +5364,13 @@
     <t xml:space="preserve">k7nsi</t>
   </si>
   <si>
-    <t xml:space="preserve">a:_Hwa</t>
+    <t xml:space="preserve">a:_Hua</t>
   </si>
   <si>
     <t xml:space="preserve">nunaba</t>
   </si>
   <si>
-    <t xml:space="preserve">vilo_H</t>
+    <t xml:space="preserve">Bilo_H</t>
   </si>
   <si>
     <t xml:space="preserve">volar</t>
@@ -5409,7 +5394,7 @@
     <t xml:space="preserve">dubu_Hk</t>
   </si>
   <si>
-    <t xml:space="preserve">kwite</t>
+    <t xml:space="preserve">kuite</t>
   </si>
   <si>
     <t xml:space="preserve">ho_Hgega</t>
@@ -5421,10 +5406,7 @@
     <t xml:space="preserve">durun</t>
   </si>
   <si>
-    <t xml:space="preserve">kwa_"krara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuite</t>
+    <t xml:space="preserve">kua_"krara</t>
   </si>
 </sst>
 </file>
@@ -5662,8 +5644,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="81" sqref="C17 C19 C26:C28 C32 C35 C37:C38 C40 C42 C46 C51 C53:C54 C56 C61 C64 C66 C72 C74 C78 D38 D75 F41:G41 J22 J28 J40:J41 J53:J54 J56 J61:K61 J64 J68 J71 J80 K29:K30 K35:L35 K54 K75:L75 L16 L39 L41 L56 L63 L72 L78 L85 L88 M71 N10 N13:O13 N16 N19 N26 N29 N32:N33 N39:O39 N41:N42 N46 N50 N53:O53 N55 N61 N66 N68:O68 N75:N76 N78 N80 N82 N85 N87 O18:O20 O35 O43 O51 O56:O57 O60:O61 O74 O77 Q14 Q80:Q81 V10 V27 V73 V88 B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9573,43 +9555,43 @@
         <v>1124</v>
       </c>
       <c r="J61" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="L61" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="M61" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="O61" s="6" t="s">
         <v>1128</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>1130</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>376</v>
       </c>
       <c r="Q61" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S61" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="R61" s="6" t="s">
+      <c r="T61" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="S61" s="6" t="s">
+      <c r="U61" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="T61" s="6" t="s">
+      <c r="V61" s="6" t="s">
         <v>1134</v>
-      </c>
-      <c r="U61" s="6" t="s">
-        <v>1135</v>
-      </c>
-      <c r="V61" s="6" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9617,67 +9599,67 @@
         <v>46</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="I62" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H62" s="6" t="s">
+      <c r="J62" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="L62" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="M62" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="L62" s="6" t="s">
+      <c r="N62" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="M62" s="6" t="s">
+      <c r="O62" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="N62" s="6" t="s">
+      <c r="P62" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="O62" s="6" t="s">
+      <c r="Q62" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="R62" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="Q62" s="6" t="s">
+      <c r="S62" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="R62" s="6" t="s">
+      <c r="T62" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="S62" s="6" t="s">
+      <c r="U62" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="T62" s="6" t="s">
+      <c r="V62" s="6" t="s">
         <v>1153</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="V62" s="6" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,67 +9667,67 @@
         <v>76</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="L63" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="M63" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="N63" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="M63" s="6" t="s">
+      <c r="O63" s="6" t="s">
         <v>1167</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>1169</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>916</v>
       </c>
       <c r="Q63" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S63" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="R63" s="6" t="s">
+      <c r="T63" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="U63" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="T63" s="6" t="s">
+      <c r="V63" s="6" t="s">
         <v>1173</v>
-      </c>
-      <c r="U63" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="V63" s="6" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9753,57 +9735,57 @@
         <v>28</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="G64" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="J64" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="L64" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="P64" s="9" t="s">
         <v>1188</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>1190</v>
       </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
@@ -9813,65 +9795,65 @@
         <v>22</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>1193</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>1195</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>646</v>
       </c>
       <c r="F65" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="M65" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="N65" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="M65" s="6" t="s">
+      <c r="O65" s="6" t="s">
         <v>1203</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="P65" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="R65" s="6" t="s">
         <v>1206</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>1208</v>
       </c>
       <c r="S65" s="11"/>
       <c r="T65" s="6" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,13 +9861,13 @@
         <v>36</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>1211</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>1213</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>1070</v>
@@ -9897,7 +9879,7 @@
         <v>573</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>74</v>
@@ -9909,33 +9891,33 @@
         <v>576</v>
       </c>
       <c r="L66" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N66" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>1217</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>1080</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="Q66" s="11"/>
       <c r="R66" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T66" s="6" t="s">
         <v>1219</v>
-      </c>
-      <c r="S66" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="T66" s="6" t="s">
-        <v>1221</v>
       </c>
       <c r="U66" s="11"/>
       <c r="V66" s="6" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,58 +9925,58 @@
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="I67" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="K67" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J67" s="6" t="s">
+      <c r="L67" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>1232</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>221</v>
       </c>
       <c r="N67" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>1233</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>1235</v>
       </c>
       <c r="Q67" s="6" t="s">
         <v>31</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
@@ -10005,49 +9987,49 @@
         <v>83</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="J68" s="12" t="s">
         <v>1244</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="L68" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="N68" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="P68" s="9" t="s">
         <v>1249</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>1252</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -10061,7 +10043,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>550</v>
@@ -10070,54 +10052,54 @@
         <v>349</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>1254</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>1257</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J69" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="N69" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O69" s="6" t="s">
         <v>1259</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>1262</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
       <c r="V69" s="6" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10125,67 +10107,67 @@
         <v>35</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>1271</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="J70" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="K70" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="L70" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="M70" s="6" t="s">
         <v>1275</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="N70" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="O70" s="6" t="s">
         <v>1277</v>
       </c>
-      <c r="M70" s="6" t="s">
+      <c r="P70" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="N70" s="6" t="s">
+      <c r="Q70" s="6" t="s">
         <v>1279</v>
       </c>
-      <c r="O70" s="6" t="s">
+      <c r="R70" s="6" t="s">
         <v>1280</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="S70" s="6" t="s">
         <v>1281</v>
       </c>
-      <c r="Q70" s="6" t="s">
+      <c r="T70" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="R70" s="6" t="s">
+      <c r="U70" s="6" t="s">
         <v>1283</v>
       </c>
-      <c r="S70" s="6" t="s">
+      <c r="V70" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="T70" s="6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>1286</v>
-      </c>
-      <c r="V70" s="6" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,67 +10175,67 @@
         <v>26</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="K71" s="6" t="s">
         <v>1294</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="L71" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="M71" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="N71" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O71" s="6" t="s">
         <v>1297</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="P71" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="M71" s="6" t="s">
+      <c r="Q71" s="6" t="s">
         <v>1299</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O71" s="6" t="s">
+      <c r="R71" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="S71" s="6" t="s">
         <v>1301</v>
       </c>
-      <c r="Q71" s="6" t="s">
+      <c r="T71" s="6" t="s">
         <v>1302</v>
       </c>
-      <c r="R71" s="6" t="s">
+      <c r="U71" s="6" t="s">
         <v>1303</v>
       </c>
-      <c r="S71" s="6" t="s">
+      <c r="V71" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="T71" s="6" t="s">
-        <v>1305</v>
-      </c>
-      <c r="U71" s="6" t="s">
-        <v>1306</v>
-      </c>
-      <c r="V71" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,62 +10243,62 @@
         <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="J72" s="6" t="s">
         <v>1313</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="K72" s="6" t="s">
         <v>1314</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="L72" s="6" t="s">
         <v>1315</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="M72" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="N72" s="6" t="s">
         <v>1317</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="O72" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="M72" s="6" t="s">
+      <c r="P72" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="N72" s="6" t="s">
+      <c r="Q72" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="O72" s="6" t="s">
+      <c r="R72" s="6" t="s">
         <v>1321</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>1324</v>
       </c>
       <c r="S72" s="11"/>
       <c r="T72" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="V72" s="11"/>
     </row>
@@ -10325,65 +10307,65 @@
         <v>47</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>1327</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>1329</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>1331</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>1333</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="M73" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="N73" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="O73" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="P73" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="Q73" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="O73" s="6" t="s">
+      <c r="R73" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>1341</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>1343</v>
       </c>
       <c r="S73" s="11"/>
       <c r="T73" s="6" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,67 +10373,67 @@
         <v>86</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="L74" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="M74" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="N74" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="O74" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="M74" s="6" t="s">
+      <c r="P74" s="7" t="s">
         <v>1358</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>1359</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="R74" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="S74" s="6" t="s">
         <v>1361</v>
       </c>
-      <c r="Q74" s="6" t="s">
+      <c r="T74" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="U74" s="6" t="s">
         <v>1363</v>
       </c>
-      <c r="S74" s="6" t="s">
+      <c r="V74" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="T74" s="6" t="s">
-        <v>1365</v>
-      </c>
-      <c r="U74" s="6" t="s">
-        <v>1366</v>
-      </c>
-      <c r="V74" s="6" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,55 +10441,55 @@
         <v>59</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>1369</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="J75" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="K75" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="L75" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="M75" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="N75" s="6" t="s">
         <v>1377</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="O75" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="M75" s="6" t="s">
+      <c r="P75" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="N75" s="6" t="s">
+      <c r="Q75" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="R75" s="6" t="s">
         <v>1381</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>1383</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>1384</v>
       </c>
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
@@ -10519,67 +10501,67 @@
         <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>1386</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>1387</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>1389</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="J76" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="K76" s="6" t="s">
         <v>1391</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="L76" s="6" t="s">
         <v>1392</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="M76" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="N76" s="6" t="s">
         <v>1394</v>
       </c>
-      <c r="L76" s="6" t="s">
+      <c r="O76" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="M76" s="6" t="s">
+      <c r="P76" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="N76" s="6" t="s">
+      <c r="Q76" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="R76" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="P76" s="7" t="s">
+      <c r="S76" s="6" t="s">
         <v>1399</v>
       </c>
-      <c r="Q76" s="6" t="s">
+      <c r="T76" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="R76" s="6" t="s">
+      <c r="U76" s="6" t="s">
         <v>1401</v>
       </c>
-      <c r="S76" s="6" t="s">
+      <c r="V76" s="6" t="s">
         <v>1402</v>
-      </c>
-      <c r="T76" s="6" t="s">
-        <v>1403</v>
-      </c>
-      <c r="U76" s="6" t="s">
-        <v>1404</v>
-      </c>
-      <c r="V76" s="6" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10587,57 +10569,57 @@
         <v>98</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>1407</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>1408</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>1410</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="J77" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="K77" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="L77" s="6" t="s">
         <v>1413</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="M77" s="6" t="s">
         <v>1414</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="N77" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="L77" s="6" t="s">
+      <c r="O77" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="M77" s="6" t="s">
+      <c r="P77" s="7" t="s">
         <v>1417</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>1418</v>
-      </c>
-      <c r="O77" s="6" t="s">
-        <v>1419</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>1420</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
       <c r="S77" s="6" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
@@ -10647,60 +10629,60 @@
         <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>988</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="J78" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H78" s="6" t="s">
+      <c r="K78" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="L78" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="M78" s="6" t="s">
         <v>1429</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="N78" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="L78" s="6" t="s">
+      <c r="O78" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="M78" s="6" t="s">
+      <c r="P78" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="N78" s="6" t="s">
+      <c r="Q78" s="6" t="s">
         <v>1433</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>1434</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>1435</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>1436</v>
       </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
       <c r="T78" s="6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="V78" s="11"/>
     </row>
@@ -10709,52 +10691,52 @@
         <v>51</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>1439</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>1440</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>1442</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="I79" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="J79" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="K79" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="L79" s="6" t="s">
         <v>1446</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="M79" s="6" t="s">
         <v>1447</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>1448</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>1449</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>1450</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>94</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>74</v>
@@ -10764,7 +10746,7 @@
         <v>865</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="V79" s="6" t="s">
         <v>94</v>
@@ -10775,67 +10757,67 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>1454</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>1457</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="I80" s="6" t="s">
         <v>1458</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="J80" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="K80" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="L80" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="M80" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="N80" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="O80" s="6" t="s">
         <v>1464</v>
       </c>
-      <c r="M80" s="6" t="s">
+      <c r="P80" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="N80" s="6" t="s">
+      <c r="Q80" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R80" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="O80" s="6" t="s">
+      <c r="S80" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="T80" s="6" t="s">
         <v>1468</v>
       </c>
-      <c r="Q80" s="6" t="s">
-        <v>1466</v>
-      </c>
-      <c r="R80" s="6" t="s">
+      <c r="U80" s="6" t="s">
         <v>1469</v>
       </c>
-      <c r="S80" s="6" t="s">
+      <c r="V80" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="T80" s="6" t="s">
-        <v>1471</v>
-      </c>
-      <c r="U80" s="6" t="s">
-        <v>1472</v>
-      </c>
-      <c r="V80" s="6" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,67 +10825,67 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>1474</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>1476</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>1477</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>1480</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="M81" s="6" t="s">
         <v>1482</v>
       </c>
-      <c r="K81" s="6" t="s">
+      <c r="N81" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="P81" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="M81" s="6" t="s">
+      <c r="Q81" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="N81" s="6" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O81" s="6" t="s">
+      <c r="R81" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="P81" s="7" t="s">
+      <c r="S81" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="Q81" s="6" t="s">
+      <c r="T81" s="6" t="s">
         <v>1488</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="U81" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="S81" s="6" t="s">
+      <c r="V81" s="6" t="s">
         <v>1490</v>
-      </c>
-      <c r="T81" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="U81" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="V81" s="6" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10911,56 +10893,56 @@
         <v>9</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="F82" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="H82" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="I82" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="J82" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="K82" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="L82" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="M82" s="6" t="s">
         <v>1502</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="N82" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="L82" s="6" t="s">
+      <c r="O82" s="6" t="s">
         <v>1504</v>
       </c>
-      <c r="M82" s="6" t="s">
+      <c r="P82" s="7" t="s">
         <v>1505</v>
-      </c>
-      <c r="N82" s="6" t="s">
-        <v>1506</v>
-      </c>
-      <c r="O82" s="6" t="s">
-        <v>1507</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>1508</v>
       </c>
       <c r="Q82" s="11"/>
       <c r="R82" s="6" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
@@ -10971,65 +10953,65 @@
         <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>861</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>1513</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="I83" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J83" s="6" t="s">
         <v>1514</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>1515</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>1517</v>
-      </c>
       <c r="K83" s="6" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>901</v>
       </c>
       <c r="M83" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q83" s="6" t="s">
         <v>1518</v>
       </c>
-      <c r="N83" s="6" t="s">
-        <v>1518</v>
-      </c>
-      <c r="O83" s="6" t="s">
+      <c r="R83" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="S83" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="T83" s="6" t="s">
         <v>1520</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="T83" s="6" t="s">
-        <v>1524</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="6" t="s">
-        <v>1523</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11037,55 +11019,55 @@
         <v>45</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="H84" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="J84" s="12" t="s">
         <v>1528</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="N84" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="P84" s="9" t="s">
         <v>1534</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>1538</v>
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
@@ -11095,67 +11077,67 @@
         <v>11</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>1540</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>1543</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="J85" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="K85" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="L85" s="6" t="s">
         <v>1546</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="M85" s="6" t="s">
         <v>1547</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="N85" s="6" t="s">
         <v>1548</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="O85" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="L85" s="6" t="s">
+      <c r="P85" s="7" t="s">
         <v>1550</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>1551</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="R85" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="S85" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="T85" s="6" t="s">
         <v>1554</v>
       </c>
-      <c r="Q85" s="6" t="s">
+      <c r="U85" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="V85" s="6" t="s">
         <v>1556</v>
-      </c>
-      <c r="S85" s="6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="T85" s="6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="U85" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="V85" s="6" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11163,63 +11145,63 @@
         <v>67</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>1562</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="H86" s="6" t="s">
         <v>1563</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="I86" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="J86" s="6" t="s">
         <v>1565</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="K86" s="6" t="s">
         <v>1566</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="L86" s="6" t="s">
         <v>1567</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="M86" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="N86" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="O86" s="6" t="s">
         <v>1570</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>1573</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>1574</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>360</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="S86" s="11"/>
       <c r="T86" s="6" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="U86" s="11"/>
       <c r="V86" s="6" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11227,63 +11209,63 @@
         <v>57</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>554</v>
       </c>
       <c r="F87" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>1582</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="K87" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="L87" s="6" t="s">
         <v>1584</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="M87" s="6" t="s">
         <v>1585</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="N87" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="O87" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P87" s="7" t="s">
         <v>1587</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>1589</v>
-      </c>
-      <c r="N87" s="6" t="s">
-        <v>1590</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>1591</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>94</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="S87" s="11"/>
       <c r="T87" s="6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="U87" s="11"/>
       <c r="V87" s="6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,67 +11273,67 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>1595</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>1599</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>958</v>
       </c>
       <c r="H88" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L88" s="6" t="s">
         <v>1600</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="M88" s="6" t="s">
         <v>1601</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="N88" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="O88" s="6" t="s">
         <v>1603</v>
       </c>
-      <c r="L88" s="6" t="s">
+      <c r="P88" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="M88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>1605</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="R88" s="6" t="s">
         <v>1606</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="S88" s="6" t="s">
         <v>1607</v>
       </c>
-      <c r="P88" s="7" t="s">
+      <c r="T88" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="Q88" s="6" t="s">
+      <c r="U88" s="6" t="s">
         <v>1609</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="V88" s="6" t="s">
         <v>1610</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="T88" s="6" t="s">
-        <v>1612</v>
-      </c>
-      <c r="U88" s="6" t="s">
-        <v>1613</v>
-      </c>
-      <c r="V88" s="6" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,61 +11341,61 @@
         <v>1</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>1616</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>1617</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>1618</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="J89" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="K89" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="L89" s="6" t="s">
         <v>1621</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="M89" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="N89" s="6" t="s">
         <v>1623</v>
       </c>
-      <c r="K89" s="6" t="s">
+      <c r="O89" s="6" t="s">
         <v>1624</v>
       </c>
-      <c r="L89" s="6" t="s">
+      <c r="P89" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="M89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>1626</v>
       </c>
-      <c r="N89" s="6" t="s">
+      <c r="R89" s="6" t="s">
         <v>1627</v>
       </c>
-      <c r="O89" s="6" t="s">
+      <c r="S89" s="6" t="s">
         <v>1628</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="T89" s="6" t="s">
         <v>1629</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>1630</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>1631</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>1632</v>
-      </c>
-      <c r="T89" s="6" t="s">
-        <v>1633</v>
       </c>
       <c r="U89" s="11"/>
       <c r="V89" s="6" t="s">
@@ -11425,49 +11407,49 @@
         <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>1639</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>989</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="Q90" s="10"/>
       <c r="R90" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
@@ -11479,58 +11461,58 @@
         <v>27</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>1647</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="H91" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>1648</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="J91" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M91" s="6" t="s">
         <v>1649</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="N91" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O91" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="P91" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q91" s="6" t="s">
         <v>1651</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I91" s="6" t="s">
+      <c r="R91" s="6" t="s">
         <v>1652</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K91" s="6" t="s">
+      <c r="S91" s="6" t="s">
         <v>1653</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>1654</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O91" s="6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Q91" s="6" t="s">
-        <v>1656</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>1657</v>
-      </c>
-      <c r="S91" s="6" t="s">
-        <v>1658</v>
       </c>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
@@ -11541,53 +11523,53 @@
         <v>66</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>1659</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>1664</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>425</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>409</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
       <c r="T92" s="1" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="U92" s="10"/>
       <c r="V92" s="10"/>
@@ -11597,52 +11579,52 @@
         <v>69</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="J93" s="13" t="s">
         <v>1673</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>1676</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J93" s="13" t="s">
-        <v>1678</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>735</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
       <c r="S93" s="1" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="T93" s="10"/>
       <c r="U93" s="10"/>
@@ -11653,59 +11635,59 @@
         <v>68</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>1690</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>394</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="Q94" s="10"/>
       <c r="R94" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="U94" s="10"/>
       <c r="V94" s="10"/>
@@ -11715,39 +11697,39 @@
         <v>32</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>1702</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>1711</v>
       </c>
       <c r="O95" s="10"/>
       <c r="P95" s="14"/>
@@ -11763,55 +11745,55 @@
         <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="J96" s="12" t="s">
         <v>1715</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="O96" s="1" t="s">
         <v>1720</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>1725</v>
       </c>
       <c r="P96" s="14"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="U96" s="10"/>
       <c r="V96" s="10"/>
@@ -11821,57 +11803,57 @@
         <v>80</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>699</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J97" s="12" t="s">
         <v>1730</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>1731</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>1736</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>988</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="1" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="P97" s="9" t="s">
         <v>227</v>
       </c>
       <c r="Q97" s="10"/>
       <c r="R97" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="U97" s="10"/>
       <c r="V97" s="10"/>
@@ -11881,55 +11863,55 @@
         <v>75</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>1744</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J98" s="12" t="s">
-        <v>1748</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>1749</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="8" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="Q98" s="10"/>
       <c r="R98" s="1" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="U98" s="10"/>
       <c r="V98" s="10"/>
@@ -11939,51 +11921,51 @@
         <v>56</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="J99" s="12" t="s">
         <v>1760</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>1763</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>1764</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>1765</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>1769</v>
       </c>
       <c r="O99" s="10"/>
       <c r="P99" s="9" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="Q99" s="10"/>
       <c r="R99" s="1" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
@@ -11995,59 +11977,59 @@
         <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="H100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>1449</v>
-      </c>
-      <c r="K100" s="1" t="s">
+      <c r="P100" s="9" t="s">
         <v>1778</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="R100" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="S100" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="O100" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>1782</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>1783</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>1787</v>
       </c>
       <c r="U100" s="10"/>
       <c r="V100" s="10"/>
@@ -12057,47 +12039,47 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="I101" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J101" s="12" t="s">
         <v>1790</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>1792</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>1795</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>1797</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="1" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
@@ -12127,7 +12109,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="81" sqref="C17 C19 C26:C28 C32 C35 C37:C38 C40 C42 C46 C51 C53:C54 C56 C61 C64 C66 C72 C74 C78 D38 D75 F41:G41 J22 J28 J40:J41 J53:J54 J56 J61:K61 J64 J68 J71 J80 K29:K30 K35:L35 K54 K75:L75 L16 L39 L41 L56 L63 L72 L78 L85 L88 M71 N10 N13:O13 N16 N19 N26 N29 N32:N33 N39:O39 N41:N42 N46 N50 N53:O53 N55 N61 N66 N68:O68 N75:N76 N78 N80 N82 N85 N87 O18:O20 O35 O43 O51 O56:O57 O60:O61 O74 O77 Q14 Q80:Q81 V10 V27 V73 V88 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12150,7 +12132,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="81" sqref="C17 C19 C26:C28 C32 C35 C37:C38 C40 C42 C46 C51 C53:C54 C56 C61 C64 C66 C72 C74 C78 D38 D75 F41:G41 J22 J28 J40:J41 J53:J54 J56 J61:K61 J64 J68 J71 J80 K29:K30 K35:L35 K54 K75:L75 L16 L39 L41 L56 L63 L72 L78 L85 L88 M71 N10 N13:O13 N16 N19 N26 N29 N32:N33 N39:O39 N41:N42 N46 N50 N53:O53 N55 N61 N66 N68:O68 N75:N76 N78 N80 N82 N85 N87 O18:O20 O35 O43 O51 O56:O57 O60:O61 O74 O77 Q14 Q80:Q81 V10 V27 V73 V88 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
